--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\Finalproject-demo\Chickeam-VOD\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF722F9-EEF5-4837-87B6-E6AE06884C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E99E3A-1D67-49FB-B50A-5A1B185535A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{CFFCD8F7-C898-4835-8517-FB6EEB75B2C2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>title</t>
   </si>
@@ -151,6 +151,72 @@
   </si>
   <si>
     <t>804e6fd5-d178-4ff6-87f2-8ee5f0a2a371</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>W9QP6Sh0Ye</t>
+  </si>
+  <si>
+    <t>yDF3WwuwdK</t>
+  </si>
+  <si>
+    <t>vsOw9oojz1</t>
+  </si>
+  <si>
+    <t>ikMYMnPVWH</t>
+  </si>
+  <si>
+    <t>TrtKVHuhnX</t>
+  </si>
+  <si>
+    <t>6vJ3LmCj7l</t>
+  </si>
+  <si>
+    <t>r7OxxKAcwS</t>
+  </si>
+  <si>
+    <t>yiaLDKyzes</t>
+  </si>
+  <si>
+    <t>Qjpvndii8D</t>
+  </si>
+  <si>
+    <t>1vqUIddqpx</t>
+  </si>
+  <si>
+    <t>k4Hrf4d</t>
+  </si>
+  <si>
+    <t>kwAV8TS</t>
+  </si>
+  <si>
+    <t>VFURvtJ</t>
+  </si>
+  <si>
+    <t>uo7WhDT</t>
+  </si>
+  <si>
+    <t>rDgszUK</t>
+  </si>
+  <si>
+    <t>ClsCi56</t>
+  </si>
+  <si>
+    <t>yP4wLPu</t>
+  </si>
+  <si>
+    <t>uLUh0q9</t>
+  </si>
+  <si>
+    <t>e9xyUOQ</t>
+  </si>
+  <si>
+    <t>qzBF57v</t>
   </si>
 </sst>
 </file>
@@ -510,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8372A9C0-8B26-4347-91F8-655E41A3468D}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -526,7 +592,7 @@
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +617,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -571,8 +643,14 @@
       <c r="H2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -591,8 +669,14 @@
       <c r="H3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -611,8 +695,14 @@
       <c r="H4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -637,8 +727,14 @@
       <c r="H5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -663,8 +759,14 @@
       <c r="H6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -689,8 +791,14 @@
       <c r="H7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -715,8 +823,14 @@
       <c r="H8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -741,8 +855,14 @@
       <c r="H9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -767,8 +887,14 @@
       <c r="H10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -792,6 +918,12 @@
       </c>
       <c r="H11" t="s">
         <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\Finalproject-demo\Chickeam-VOD\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\final\Chickeam-VOD\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E99E3A-1D67-49FB-B50A-5A1B185535A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E5126D-2702-42A2-8FCE-61997C996F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{CFFCD8F7-C898-4835-8517-FB6EEB75B2C2}"/>
+    <workbookView xWindow="7320" yWindow="2496" windowWidth="23040" windowHeight="13560" xr2:uid="{CFFCD8F7-C898-4835-8517-FB6EEB75B2C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>title</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>qzBF57v</t>
+  </si>
+  <si>
+    <t>view_count</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8372A9C0-8B26-4347-91F8-655E41A3468D}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -592,7 +595,7 @@
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,8 +626,11 @@
       <c r="J1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -649,8 +655,11 @@
       <c r="J2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -675,8 +684,11 @@
       <c r="J3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -701,8 +713,11 @@
       <c r="J4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -733,8 +748,11 @@
       <c r="J5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -765,8 +783,11 @@
       <c r="J6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -797,8 +818,11 @@
       <c r="J7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -829,8 +853,11 @@
       <c r="J8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -861,8 +888,11 @@
       <c r="J9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -893,8 +923,11 @@
       <c r="J10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -924,6 +957,9 @@
       </c>
       <c r="J11" t="s">
         <v>60</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\final\Chickeam-VOD\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E5126D-2702-42A2-8FCE-61997C996F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7484434E-486D-4ACE-A305-3910E2EB774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="2496" windowWidth="23040" windowHeight="13560" xr2:uid="{CFFCD8F7-C898-4835-8517-FB6EEB75B2C2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>title</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>qzBF57v</t>
-  </si>
-  <si>
-    <t>view_count</t>
   </si>
 </sst>
 </file>
@@ -579,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8372A9C0-8B26-4347-91F8-655E41A3468D}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -595,7 +592,7 @@
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,11 +623,8 @@
       <c r="J1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -655,11 +649,8 @@
       <c r="J2" t="s">
         <v>51</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -684,11 +675,8 @@
       <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -713,11 +701,8 @@
       <c r="J4" t="s">
         <v>53</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -748,11 +733,8 @@
       <c r="J5" t="s">
         <v>56</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -783,11 +765,8 @@
       <c r="J6" t="s">
         <v>54</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -818,11 +797,8 @@
       <c r="J7" t="s">
         <v>55</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -853,11 +829,8 @@
       <c r="J8" t="s">
         <v>57</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -888,11 +861,8 @@
       <c r="J9" t="s">
         <v>58</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -923,11 +893,8 @@
       <c r="J10" t="s">
         <v>59</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -957,9 +924,6 @@
       </c>
       <c r="J11" t="s">
         <v>60</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
